--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.5238141893375</v>
+        <v>441.6731054773809</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.3453583852291</v>
+        <v>604.3166281563678</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.273801374446</v>
+        <v>546.6414973288378</v>
       </c>
       <c r="AD2" t="n">
-        <v>314523.8141893375</v>
+        <v>441673.1054773809</v>
       </c>
       <c r="AE2" t="n">
-        <v>430345.3583852291</v>
+        <v>604316.6281563678</v>
       </c>
       <c r="AF2" t="n">
         <v>6.200046850342983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>389273.801374446</v>
+        <v>546641.4973288378</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.5158685655719</v>
+        <v>356.1554371206261</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.0303751175949</v>
+        <v>487.3075815373969</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.5783533521018</v>
+        <v>440.7996298959532</v>
       </c>
       <c r="AD3" t="n">
-        <v>248515.8685655719</v>
+        <v>356155.4371206261</v>
       </c>
       <c r="AE3" t="n">
-        <v>340030.3751175949</v>
+        <v>487307.5815373969</v>
       </c>
       <c r="AF3" t="n">
         <v>7.535800392066208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>307578.3533521018</v>
+        <v>440799.6298959532</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.1694179192559</v>
+        <v>330.9531453962571</v>
       </c>
       <c r="AB4" t="n">
-        <v>319.0326843056963</v>
+        <v>452.8246941534745</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.5846526808399</v>
+        <v>409.6077408869161</v>
       </c>
       <c r="AD4" t="n">
-        <v>233169.4179192559</v>
+        <v>330953.1453962571</v>
       </c>
       <c r="AE4" t="n">
-        <v>319032.6843056962</v>
+        <v>452824.6941534745</v>
       </c>
       <c r="AF4" t="n">
         <v>8.074790778008129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>288584.6526808399</v>
+        <v>409607.7408869161</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.3841179082376</v>
+        <v>318.2351651929429</v>
       </c>
       <c r="AB5" t="n">
-        <v>301.5392727830017</v>
+        <v>435.4233925616126</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.7607878017085</v>
+        <v>393.8671950961012</v>
       </c>
       <c r="AD5" t="n">
-        <v>220384.1179082376</v>
+        <v>318235.1651929429</v>
       </c>
       <c r="AE5" t="n">
-        <v>301539.2727830017</v>
+        <v>435423.3925616126</v>
       </c>
       <c r="AF5" t="n">
         <v>8.340519125499791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>272760.7878017085</v>
+        <v>393867.1950961011</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.1979541087641</v>
+        <v>316.0490013934695</v>
       </c>
       <c r="AB6" t="n">
-        <v>298.5480670258237</v>
+        <v>432.432186804433</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.0550585238109</v>
+        <v>391.1614658182031</v>
       </c>
       <c r="AD6" t="n">
-        <v>218197.9541087641</v>
+        <v>316049.0013934695</v>
       </c>
       <c r="AE6" t="n">
-        <v>298548.0670258237</v>
+        <v>432432.186804433</v>
       </c>
       <c r="AF6" t="n">
         <v>8.482031976466091e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>270055.0585238109</v>
+        <v>391161.4658182031</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>218.0074338304977</v>
+        <v>315.8584811152031</v>
       </c>
       <c r="AB7" t="n">
-        <v>298.2873887759382</v>
+        <v>432.1715085545474</v>
       </c>
       <c r="AC7" t="n">
-        <v>269.8192590402302</v>
+        <v>390.9256663346224</v>
       </c>
       <c r="AD7" t="n">
-        <v>218007.4338304977</v>
+        <v>315858.4811152031</v>
       </c>
       <c r="AE7" t="n">
-        <v>298287.3887759382</v>
+        <v>432171.5085545474</v>
       </c>
       <c r="AF7" t="n">
         <v>8.476728258031238e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>269819.2590402302</v>
+        <v>390925.6663346224</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.2888659819245</v>
+        <v>385.421290364441</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.4529066227758</v>
+        <v>527.350413063907</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.2882783415996</v>
+        <v>477.0208297820403</v>
       </c>
       <c r="AD2" t="n">
-        <v>269288.8659819245</v>
+        <v>385421.290364441</v>
       </c>
       <c r="AE2" t="n">
-        <v>368452.9066227758</v>
+        <v>527350.4130639071</v>
       </c>
       <c r="AF2" t="n">
         <v>7.531160389377253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>333288.2783415996</v>
+        <v>477020.8297820403</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.3084167419894</v>
+        <v>325.0124230165882</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.3816480427269</v>
+        <v>444.6963357074372</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.5683819840182</v>
+        <v>402.2551415627458</v>
       </c>
       <c r="AD3" t="n">
-        <v>228308.4167419893</v>
+        <v>325012.4230165881</v>
       </c>
       <c r="AE3" t="n">
-        <v>312381.6480427269</v>
+        <v>444696.3357074372</v>
       </c>
       <c r="AF3" t="n">
         <v>8.849156322391507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>282568.3819840182</v>
+        <v>402255.1415627458</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.382144704755</v>
+        <v>301.4397672480263</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.3271082576312</v>
+        <v>412.4431881327147</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.3323807327914</v>
+        <v>373.0801891249778</v>
       </c>
       <c r="AD4" t="n">
-        <v>214382.144704755</v>
+        <v>301439.7672480263</v>
       </c>
       <c r="AE4" t="n">
-        <v>293327.1082576311</v>
+        <v>412443.1881327147</v>
       </c>
       <c r="AF4" t="n">
         <v>9.326473172344333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>265332.3807327914</v>
+        <v>373080.1891249778</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.4476252457331</v>
+        <v>299.184785909255</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.9977722199664</v>
+        <v>409.3578231822523</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.5614936081891</v>
+        <v>370.2892870750507</v>
       </c>
       <c r="AD5" t="n">
-        <v>202447.6252457331</v>
+        <v>299184.785909255</v>
       </c>
       <c r="AE5" t="n">
-        <v>276997.7722199664</v>
+        <v>409357.8231822524</v>
       </c>
       <c r="AF5" t="n">
         <v>9.539346727421388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>250561.4936081891</v>
+        <v>370289.2870750506</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.5585377888699</v>
+        <v>299.2956984523919</v>
       </c>
       <c r="AB6" t="n">
-        <v>277.1495276546023</v>
+        <v>409.5095786168882</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.6987657171335</v>
+        <v>370.426559183995</v>
       </c>
       <c r="AD6" t="n">
-        <v>202558.5377888699</v>
+        <v>299295.698452392</v>
       </c>
       <c r="AE6" t="n">
-        <v>277149.5276546023</v>
+        <v>409509.5786168883</v>
       </c>
       <c r="AF6" t="n">
         <v>9.540072132968429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>250698.7657171334</v>
+        <v>370426.559183995</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0862951654299</v>
+        <v>283.5727817251358</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0844550607094</v>
+        <v>387.9967903045256</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2623597006165</v>
+        <v>350.9669211947762</v>
       </c>
       <c r="AD2" t="n">
-        <v>190086.2951654299</v>
+        <v>283572.7817251358</v>
       </c>
       <c r="AE2" t="n">
-        <v>260084.4550607094</v>
+        <v>387996.7903045256</v>
       </c>
       <c r="AF2" t="n">
         <v>1.338371050423547e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235262.3597006165</v>
+        <v>350966.9211947762</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.1847292863976</v>
+        <v>273.3840649439385</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.8508928507385</v>
+        <v>374.0561385100308</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.1465269366494</v>
+        <v>338.3567456417204</v>
       </c>
       <c r="AD3" t="n">
-        <v>189184.7292863976</v>
+        <v>273384.0649439385</v>
       </c>
       <c r="AE3" t="n">
-        <v>258850.8928507385</v>
+        <v>374056.1385100308</v>
       </c>
       <c r="AF3" t="n">
         <v>1.365727199320115e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234146.5269366494</v>
+        <v>338356.7456417204</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.4543554056188</v>
+        <v>314.1785714639251</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.2671307086927</v>
+        <v>429.8729820572858</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.6100571815085</v>
+        <v>388.8465079802573</v>
       </c>
       <c r="AD2" t="n">
-        <v>219454.3554056188</v>
+        <v>314178.5714639251</v>
       </c>
       <c r="AE2" t="n">
-        <v>300267.1307086927</v>
+        <v>429872.9820572858</v>
       </c>
       <c r="AF2" t="n">
         <v>1.066299336221282e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>271610.0571815085</v>
+        <v>388846.5079802573</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.9536357757473</v>
+        <v>279.2967669320597</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.3759210987694</v>
+        <v>382.14615822018</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.0488156466249</v>
+        <v>345.6746652251468</v>
       </c>
       <c r="AD3" t="n">
-        <v>193953.6357757473</v>
+        <v>279296.7669320597</v>
       </c>
       <c r="AE3" t="n">
-        <v>265375.9210987694</v>
+        <v>382146.15822018</v>
       </c>
       <c r="AF3" t="n">
         <v>1.180574446927561e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>240048.8156466249</v>
+        <v>345674.6652251468</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.095649248125</v>
+        <v>279.4387804044374</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.5702301968686</v>
+        <v>382.3404673182793</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.2245801571162</v>
+        <v>345.8504297356381</v>
       </c>
       <c r="AD4" t="n">
-        <v>194095.649248125</v>
+        <v>279438.7804044373</v>
       </c>
       <c r="AE4" t="n">
-        <v>265570.2301968687</v>
+        <v>382340.4673182793</v>
       </c>
       <c r="AF4" t="n">
         <v>1.180287483758935e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>240224.5801571162</v>
+        <v>345850.4297356381</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.4541937746439</v>
+        <v>277.8982948488563</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.7466095839484</v>
+        <v>380.2327070197071</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.5293893009336</v>
+        <v>343.9438311217015</v>
       </c>
       <c r="AD2" t="n">
-        <v>185454.1937746439</v>
+        <v>277898.2948488563</v>
       </c>
       <c r="AE2" t="n">
-        <v>253746.6095839484</v>
+        <v>380232.7070197071</v>
       </c>
       <c r="AF2" t="n">
         <v>1.53820334202748e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229529.3893009336</v>
+        <v>343943.8311217015</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.9518117290123</v>
+        <v>399.3574708884483</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.1471517605664</v>
+        <v>546.4185100777465</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.1983709609774</v>
+        <v>494.2690943791212</v>
       </c>
       <c r="AD2" t="n">
-        <v>282951.8117290123</v>
+        <v>399357.4708884483</v>
       </c>
       <c r="AE2" t="n">
-        <v>387147.1517605665</v>
+        <v>546418.5100777466</v>
       </c>
       <c r="AF2" t="n">
         <v>7.153400926064829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>350198.3709609774</v>
+        <v>494269.0943791211</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.8797570420336</v>
+        <v>327.9690440303041</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.8998692807734</v>
+        <v>448.7417150153169</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.7508291249613</v>
+        <v>405.9144355472068</v>
       </c>
       <c r="AD3" t="n">
-        <v>230879.7570420336</v>
+        <v>327969.0440303041</v>
       </c>
       <c r="AE3" t="n">
-        <v>315899.8692807734</v>
+        <v>448741.7150153168</v>
       </c>
       <c r="AF3" t="n">
         <v>8.492326786028528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>285750.8291249613</v>
+        <v>405914.4355472068</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.9859500757664</v>
+        <v>314.041071645256</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.8897496380329</v>
+        <v>429.6848487393187</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.5550086200473</v>
+        <v>388.6763298421101</v>
       </c>
       <c r="AD4" t="n">
-        <v>216985.9500757664</v>
+        <v>314041.071645256</v>
       </c>
       <c r="AE4" t="n">
-        <v>296889.7496380329</v>
+        <v>429684.8487393187</v>
       </c>
       <c r="AF4" t="n">
         <v>8.940287129737423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>268555.0086200472</v>
+        <v>388676.3298421101</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.1125519215821</v>
+        <v>301.4255904033212</v>
       </c>
       <c r="AB5" t="n">
-        <v>292.9582395181</v>
+        <v>412.4237907483509</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.9987163080504</v>
+        <v>373.0626429997533</v>
       </c>
       <c r="AD5" t="n">
-        <v>214112.5519215821</v>
+        <v>301425.5904033212</v>
       </c>
       <c r="AE5" t="n">
-        <v>292958.2395180999</v>
+        <v>412423.7907483509</v>
       </c>
       <c r="AF5" t="n">
         <v>9.211148369023553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>264998.7163080504</v>
+        <v>373062.6429997534</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.0973440169691</v>
+        <v>301.4103824987082</v>
       </c>
       <c r="AB6" t="n">
-        <v>292.9374313920831</v>
+        <v>412.402982622334</v>
       </c>
       <c r="AC6" t="n">
-        <v>264.9798940803761</v>
+        <v>373.0438207720791</v>
       </c>
       <c r="AD6" t="n">
-        <v>214097.3440169691</v>
+        <v>301410.3824987082</v>
       </c>
       <c r="AE6" t="n">
-        <v>292937.4313920831</v>
+        <v>412402.982622334</v>
       </c>
       <c r="AF6" t="n">
         <v>9.211148369023553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>264979.8940803761</v>
+        <v>373043.8207720791</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.6881442009346</v>
+        <v>275.326489661389</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.6444196965634</v>
+        <v>376.7138497021771</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.4825663080675</v>
+        <v>340.7608086078092</v>
       </c>
       <c r="AD2" t="n">
-        <v>192688.1442009346</v>
+        <v>275326.489661389</v>
       </c>
       <c r="AE2" t="n">
-        <v>263644.4196965634</v>
+        <v>376713.8497021771</v>
       </c>
       <c r="AF2" t="n">
         <v>1.654642400731656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>238482.5663080675</v>
+        <v>340760.8086078092</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.0564965405307</v>
+        <v>344.9077799875407</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.7700861637561</v>
+        <v>471.9180408362977</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.2474674142086</v>
+        <v>426.8788453600109</v>
       </c>
       <c r="AD2" t="n">
-        <v>249056.4965405307</v>
+        <v>344907.7799875407</v>
       </c>
       <c r="AE2" t="n">
-        <v>340770.0861637561</v>
+        <v>471918.0408362977</v>
       </c>
       <c r="AF2" t="n">
         <v>8.838194963406572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>308247.4674142086</v>
+        <v>426878.8453600109</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.8367975623535</v>
+        <v>297.0654718069891</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.4762078877227</v>
+        <v>406.4580841299926</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.944443485904</v>
+        <v>367.6662950481293</v>
       </c>
       <c r="AD3" t="n">
-        <v>210836.7975623535</v>
+        <v>297065.4718069891</v>
       </c>
       <c r="AE3" t="n">
-        <v>288476.2078877227</v>
+        <v>406458.0841299926</v>
       </c>
       <c r="AF3" t="n">
         <v>1.016241118672776e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>260944.443485904</v>
+        <v>367666.2950481293</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.4923335358832</v>
+        <v>284.788327588223</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.5859676073975</v>
+        <v>389.6599537805003</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.6661840323266</v>
+        <v>352.4713546828684</v>
       </c>
       <c r="AD4" t="n">
-        <v>198492.3335358832</v>
+        <v>284788.327588223</v>
       </c>
       <c r="AE4" t="n">
-        <v>271585.9676073975</v>
+        <v>389659.9537805003</v>
       </c>
       <c r="AF4" t="n">
         <v>1.050481290148157e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>245666.1840323266</v>
+        <v>352471.3546828684</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.6515290803209</v>
+        <v>284.9475231326608</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.8037859745089</v>
+        <v>389.8777721476117</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.8632141201909</v>
+        <v>352.6683847707328</v>
       </c>
       <c r="AD5" t="n">
-        <v>198651.5290803209</v>
+        <v>284947.5231326608</v>
       </c>
       <c r="AE5" t="n">
-        <v>271803.7859745088</v>
+        <v>389877.7721476117</v>
       </c>
       <c r="AF5" t="n">
         <v>1.04967099917921e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>245863.2141201909</v>
+        <v>352668.3847707328</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.7969317478038</v>
+        <v>371.8916067078288</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.675088150386</v>
+        <v>508.8385029974135</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.9664481585043</v>
+        <v>460.2756704306639</v>
       </c>
       <c r="AD2" t="n">
-        <v>265796.9317478038</v>
+        <v>371891.6067078288</v>
       </c>
       <c r="AE2" t="n">
-        <v>363675.088150386</v>
+        <v>508838.5029974135</v>
       </c>
       <c r="AF2" t="n">
         <v>7.925402026522346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>328966.4481585043</v>
+        <v>460275.6704306639</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.7500921339965</v>
+        <v>312.5767516459452</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.8812354487567</v>
+        <v>427.6813015150227</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.4020438551555</v>
+        <v>386.8639983529047</v>
       </c>
       <c r="AD3" t="n">
-        <v>225750.0921339965</v>
+        <v>312576.7516459452</v>
       </c>
       <c r="AE3" t="n">
-        <v>308881.2354487567</v>
+        <v>427681.3015150226</v>
       </c>
       <c r="AF3" t="n">
         <v>9.245196838423753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>279402.0438551555</v>
+        <v>386863.9983529047</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.8678925886127</v>
+        <v>298.6603866817804</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.886997591352</v>
+        <v>408.6403170243603</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.2205894002751</v>
+        <v>369.6402586978417</v>
       </c>
       <c r="AD4" t="n">
-        <v>211867.8925886127</v>
+        <v>298660.3866817804</v>
       </c>
       <c r="AE4" t="n">
-        <v>289886.997591352</v>
+        <v>408640.3170243604</v>
       </c>
       <c r="AF4" t="n">
         <v>9.749790423875569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>262220.5894002751</v>
+        <v>369640.2586978417</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.4668882158394</v>
+        <v>297.9094617125797</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.6558845486026</v>
+        <v>407.6128683530285</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.3476738128286</v>
+        <v>368.7108682856685</v>
       </c>
       <c r="AD5" t="n">
-        <v>201466.8882158395</v>
+        <v>297909.4617125798</v>
       </c>
       <c r="AE5" t="n">
-        <v>275655.8845486026</v>
+        <v>407612.8683530285</v>
       </c>
       <c r="AF5" t="n">
         <v>9.800757421842733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>249347.6738128286</v>
+        <v>368710.8682856685</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.6619822199997</v>
+        <v>427.5446714992444</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.378988343915</v>
+        <v>584.9854814849647</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.1175550704073</v>
+        <v>529.1552881643188</v>
       </c>
       <c r="AD2" t="n">
-        <v>300661.9822199997</v>
+        <v>427544.6714992444</v>
       </c>
       <c r="AE2" t="n">
-        <v>411378.988343915</v>
+        <v>584985.4814849647</v>
       </c>
       <c r="AF2" t="n">
         <v>6.491423585085003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>372117.5550704073</v>
+        <v>529155.2881643188</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.8747657772003</v>
+        <v>353.1302998764205</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.416701765315</v>
+        <v>483.1684553002388</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.30956391274</v>
+        <v>437.0555360575693</v>
       </c>
       <c r="AD3" t="n">
-        <v>245874.7657772003</v>
+        <v>353130.2998764205</v>
       </c>
       <c r="AE3" t="n">
-        <v>336416.701765315</v>
+        <v>483168.4553002388</v>
       </c>
       <c r="AF3" t="n">
         <v>7.831782172941911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>304309.56391274</v>
+        <v>437055.5360575693</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.2924355574361</v>
+        <v>328.8193000986657</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.4645142316381</v>
+        <v>449.9050728786995</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.2615851541997</v>
+        <v>406.9667641688914</v>
       </c>
       <c r="AD4" t="n">
-        <v>231292.4355574361</v>
+        <v>328819.3000986657</v>
       </c>
       <c r="AE4" t="n">
-        <v>316464.5142316381</v>
+        <v>449905.0728786995</v>
       </c>
       <c r="AF4" t="n">
         <v>8.325125689166512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>286261.5851541997</v>
+        <v>406966.7641688914</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.2883091804315</v>
+        <v>315.8824935293653</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.6716948210634</v>
+        <v>432.2043633989571</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.1668874557856</v>
+        <v>390.9553855587938</v>
       </c>
       <c r="AD5" t="n">
-        <v>218288.3091804315</v>
+        <v>315882.4935293653</v>
       </c>
       <c r="AE5" t="n">
-        <v>298671.6948210634</v>
+        <v>432204.3633989571</v>
       </c>
       <c r="AF5" t="n">
         <v>8.594194184608039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>270166.8874557856</v>
+        <v>390955.3855587938</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>216.6775130939924</v>
+        <v>304.4757080772314</v>
       </c>
       <c r="AB6" t="n">
-        <v>296.4677325522906</v>
+        <v>416.5970963114896</v>
       </c>
       <c r="AC6" t="n">
-        <v>268.1732682526634</v>
+        <v>376.8376541372173</v>
       </c>
       <c r="AD6" t="n">
-        <v>216677.5130939924</v>
+        <v>304475.7080772314</v>
       </c>
       <c r="AE6" t="n">
-        <v>296467.7325522905</v>
+        <v>416597.0963114896</v>
       </c>
       <c r="AF6" t="n">
         <v>8.7310357885097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>268173.2682526634</v>
+        <v>376837.6541372173</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>216.8273714105915</v>
+        <v>304.6255663938305</v>
       </c>
       <c r="AB7" t="n">
-        <v>296.6727753123437</v>
+        <v>416.802139071543</v>
       </c>
       <c r="AC7" t="n">
-        <v>268.3587420194765</v>
+        <v>377.0231279040304</v>
       </c>
       <c r="AD7" t="n">
-        <v>216827.3714105915</v>
+        <v>304625.5663938305</v>
       </c>
       <c r="AE7" t="n">
-        <v>296672.7753123437</v>
+        <v>416802.1390715429</v>
       </c>
       <c r="AF7" t="n">
         <v>8.721375657299016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>268358.7420194765</v>
+        <v>377023.1279040304</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.6344486715188</v>
+        <v>327.2832797152267</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.6182746109083</v>
+        <v>447.8034220256416</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.5459340165668</v>
+        <v>405.0656919235637</v>
       </c>
       <c r="AD2" t="n">
-        <v>222634.4486715188</v>
+        <v>327283.2797152267</v>
       </c>
       <c r="AE2" t="n">
-        <v>304618.2746109082</v>
+        <v>447803.4220256415</v>
       </c>
       <c r="AF2" t="n">
         <v>1.001522242576739e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>275545.9340165668</v>
+        <v>405065.6919235637</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.0457451586805</v>
+        <v>281.7234230615375</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.238437453849</v>
+        <v>385.4664161930443</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.6381374583436</v>
+        <v>348.6780424370922</v>
       </c>
       <c r="AD3" t="n">
-        <v>196045.7451586805</v>
+        <v>281723.4230615374</v>
       </c>
       <c r="AE3" t="n">
-        <v>268238.437453849</v>
+        <v>385466.4161930443</v>
       </c>
       <c r="AF3" t="n">
         <v>1.124811182392588e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>242638.1374583436</v>
+        <v>348678.0424370922</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.7271275711897</v>
+        <v>281.4048054740466</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.8024908142283</v>
+        <v>385.0304695534234</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.2437969541533</v>
+        <v>348.2837019329018</v>
       </c>
       <c r="AD4" t="n">
-        <v>195727.1275711897</v>
+        <v>281404.8054740466</v>
       </c>
       <c r="AE4" t="n">
-        <v>267802.4908142284</v>
+        <v>385030.4695534233</v>
       </c>
       <c r="AF4" t="n">
         <v>1.128439358124119e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>242243.7969541533</v>
+        <v>348283.7019329018</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.0163799899998</v>
+        <v>287.5574605001191</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.7759675527602</v>
+        <v>393.4488035960786</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.2654190706253</v>
+        <v>355.8986019897321</v>
       </c>
       <c r="AD2" t="n">
-        <v>203016.3799899998</v>
+        <v>287557.4605001191</v>
       </c>
       <c r="AE2" t="n">
-        <v>277775.9675527602</v>
+        <v>393448.8035960785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.23366009427398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>251265.4190706253</v>
+        <v>355898.6019897321</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.8189964992484</v>
+        <v>275.427396817072</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.0869693501407</v>
+        <v>376.851915324292</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.1691954333025</v>
+        <v>340.8856974407259</v>
       </c>
       <c r="AD3" t="n">
-        <v>190818.9964992484</v>
+        <v>275427.3968170719</v>
       </c>
       <c r="AE3" t="n">
-        <v>261086.9693501408</v>
+        <v>376851.915324292</v>
       </c>
       <c r="AF3" t="n">
         <v>1.295289458937767e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>236169.1954333025</v>
+        <v>340885.6974407259</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.5276074355031</v>
+        <v>271.2813141943761</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.5835456272893</v>
+        <v>371.1790621676634</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.0955721499636</v>
+        <v>335.7542534274665</v>
       </c>
       <c r="AD2" t="n">
-        <v>187527.607435503</v>
+        <v>271281.3141943761</v>
       </c>
       <c r="AE2" t="n">
-        <v>256583.5456272893</v>
+        <v>371179.0621676634</v>
       </c>
       <c r="AF2" t="n">
         <v>1.437641498128319e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>232095.5721499636</v>
+        <v>335754.2534274665</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.4985291920757</v>
+        <v>271.2522359509487</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.5437594917905</v>
+        <v>371.1392760321646</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.0595831473966</v>
+        <v>335.7182644248995</v>
       </c>
       <c r="AD3" t="n">
-        <v>187498.5291920757</v>
+        <v>271252.2359509487</v>
       </c>
       <c r="AE3" t="n">
-        <v>256543.7594917905</v>
+        <v>371139.2760321646</v>
       </c>
       <c r="AF3" t="n">
         <v>1.443352060796754e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>232059.5831473966</v>
+        <v>335718.2644248995</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.2201696361917</v>
+        <v>281.3631587393027</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.2676280177304</v>
+        <v>384.9734866536223</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.4280508877043</v>
+        <v>348.2321574010818</v>
       </c>
       <c r="AD2" t="n">
-        <v>190220.1696361917</v>
+        <v>281363.1587393027</v>
       </c>
       <c r="AE2" t="n">
-        <v>260267.6280177304</v>
+        <v>384973.4866536224</v>
       </c>
       <c r="AF2" t="n">
         <v>1.796944220968006e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235428.0508877043</v>
+        <v>348232.1574010819</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.351056002851</v>
+        <v>358.1758431172433</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.277847765806</v>
+        <v>490.0719901559904</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.3250145756434</v>
+        <v>443.3002072358601</v>
       </c>
       <c r="AD2" t="n">
-        <v>252351.0560028511</v>
+        <v>358175.8431172433</v>
       </c>
       <c r="AE2" t="n">
-        <v>345277.847765806</v>
+        <v>490071.9901559904</v>
       </c>
       <c r="AF2" t="n">
         <v>8.377123842802962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>312325.0145756434</v>
+        <v>443300.2072358601</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.4774973334643</v>
+        <v>309.6476838368581</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.0893298140065</v>
+        <v>423.6736217172779</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.2127341265929</v>
+        <v>383.2388058902428</v>
       </c>
       <c r="AD3" t="n">
-        <v>213477.4973334643</v>
+        <v>309647.6838368581</v>
       </c>
       <c r="AE3" t="n">
-        <v>292089.3298140065</v>
+        <v>423673.6217172779</v>
       </c>
       <c r="AF3" t="n">
         <v>9.680992905393112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.72395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>264212.7341265929</v>
+        <v>383238.8058902428</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.1987586120808</v>
+        <v>296.3347796966935</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.9207736788111</v>
+        <v>405.4583189488254</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.7781594892061</v>
+        <v>366.7619460526734</v>
       </c>
       <c r="AD4" t="n">
-        <v>200198.7586120808</v>
+        <v>296334.7796966935</v>
       </c>
       <c r="AE4" t="n">
-        <v>273920.7736788111</v>
+        <v>405458.3189488254</v>
       </c>
       <c r="AF4" t="n">
         <v>1.009605963020163e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>247778.1594892061</v>
+        <v>366761.9460526734</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.7903091111191</v>
+        <v>295.9263301957319</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.3619150520755</v>
+        <v>404.8994603220894</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.2726375454429</v>
+        <v>366.2564241089102</v>
       </c>
       <c r="AD5" t="n">
-        <v>199790.3091111191</v>
+        <v>295926.3301957319</v>
       </c>
       <c r="AE5" t="n">
-        <v>273361.9150520755</v>
+        <v>404899.4603220894</v>
       </c>
       <c r="AF5" t="n">
         <v>1.016690770630074e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>247272.6375454429</v>
+        <v>366256.4241089101</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.7630515092001</v>
+        <v>413.5316772170148</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.0442993367157</v>
+        <v>565.8122844983415</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.2920012947721</v>
+        <v>511.811954188348</v>
       </c>
       <c r="AD2" t="n">
-        <v>296763.0515092001</v>
+        <v>413531.6772170148</v>
       </c>
       <c r="AE2" t="n">
-        <v>406044.2993367157</v>
+        <v>565812.2844983415</v>
       </c>
       <c r="AF2" t="n">
         <v>6.804845659551294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>367292.0012947721</v>
+        <v>511811.954188348</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.0407486659749</v>
+        <v>340.3367167878727</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.5390745257274</v>
+        <v>465.6637105054362</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.8020119746134</v>
+        <v>421.221419537919</v>
       </c>
       <c r="AD3" t="n">
-        <v>243040.7486659749</v>
+        <v>340336.7167878727</v>
       </c>
       <c r="AE3" t="n">
-        <v>332539.0745257274</v>
+        <v>465663.7105054362</v>
       </c>
       <c r="AF3" t="n">
         <v>8.170292284192842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>300802.0119746134</v>
+        <v>421221.419537919</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.7859522245457</v>
+        <v>316.1150747353669</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.3525919884818</v>
+        <v>432.5225912657671</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.7828007531911</v>
+        <v>391.243242204631</v>
       </c>
       <c r="AD4" t="n">
-        <v>218785.9522245457</v>
+        <v>316115.0747353669</v>
       </c>
       <c r="AE4" t="n">
-        <v>299352.5919884818</v>
+        <v>432522.5912657671</v>
       </c>
       <c r="AF4" t="n">
         <v>8.661684534225037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>270782.8007531911</v>
+        <v>391243.242204631</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.8415680118503</v>
+        <v>303.4012073407878</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.3239556116101</v>
+        <v>415.1269170002607</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.1386517779001</v>
+        <v>375.5077866760424</v>
       </c>
       <c r="AD5" t="n">
-        <v>215841.5680118503</v>
+        <v>303401.2073407878</v>
       </c>
       <c r="AE5" t="n">
-        <v>295323.9556116101</v>
+        <v>415126.9170002607</v>
       </c>
       <c r="AF5" t="n">
         <v>8.929516578362115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>267138.6517779001</v>
+        <v>375507.7866760424</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>215.0903630577782</v>
+        <v>302.6500023867158</v>
       </c>
       <c r="AB6" t="n">
-        <v>294.2961238526256</v>
+        <v>414.0990852412757</v>
       </c>
       <c r="AC6" t="n">
-        <v>266.2089148394218</v>
+        <v>374.578049737564</v>
       </c>
       <c r="AD6" t="n">
-        <v>215090.3630577782</v>
+        <v>302650.0023867157</v>
       </c>
       <c r="AE6" t="n">
-        <v>294296.1238526255</v>
+        <v>414099.0852412757</v>
       </c>
       <c r="AF6" t="n">
         <v>8.978379104376322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>266208.9148394217</v>
+        <v>374578.0497375639</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.9358163686935</v>
+        <v>296.1651901383631</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.77046920253</v>
+        <v>405.2262790333544</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.8786910892606</v>
+        <v>366.5520517010649</v>
       </c>
       <c r="AD2" t="n">
-        <v>205935.8163686935</v>
+        <v>296165.190138363</v>
       </c>
       <c r="AE2" t="n">
-        <v>281770.46920253</v>
+        <v>405226.2790333544</v>
       </c>
       <c r="AF2" t="n">
         <v>1.943482706384806e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254878.6910892606</v>
+        <v>366552.0517010649</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.1936844096778</v>
+        <v>300.5905975960447</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.1232956325395</v>
+        <v>411.2813167521525</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.1978442599851</v>
+        <v>372.0292051182797</v>
       </c>
       <c r="AD2" t="n">
-        <v>206193.6844096777</v>
+        <v>300590.5975960448</v>
       </c>
       <c r="AE2" t="n">
-        <v>282123.2956325395</v>
+        <v>411281.3167521525</v>
       </c>
       <c r="AF2" t="n">
         <v>1.14954643198157e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255197.8442599851</v>
+        <v>372029.2051182797</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.4636548183578</v>
+        <v>277.4516255629909</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.3372634195495</v>
+        <v>379.621554397128</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.2047245950351</v>
+        <v>343.3910060476632</v>
       </c>
       <c r="AD3" t="n">
-        <v>192463.6548183578</v>
+        <v>277451.6255629909</v>
       </c>
       <c r="AE3" t="n">
-        <v>263337.2634195494</v>
+        <v>379621.554397128</v>
       </c>
       <c r="AF3" t="n">
         <v>1.231579659621964e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>238204.724595035</v>
+        <v>343391.0060476632</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.5916382340621</v>
+        <v>340.5604150291431</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.3468730012309</v>
+        <v>465.9697843080121</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.5825398587668</v>
+        <v>421.4982820863544</v>
       </c>
       <c r="AD2" t="n">
-        <v>235591.6382340621</v>
+        <v>340560.4150291431</v>
       </c>
       <c r="AE2" t="n">
-        <v>322346.8730012309</v>
+        <v>465969.7843080121</v>
       </c>
       <c r="AF2" t="n">
         <v>9.423040784693286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>291582.5398587668</v>
+        <v>421498.2820863544</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.171537373552</v>
+        <v>294.0987491079498</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.8294813144254</v>
+        <v>402.3988832505987</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.6457553785481</v>
+        <v>363.9944986035406</v>
       </c>
       <c r="AD3" t="n">
-        <v>208171.537373552</v>
+        <v>294098.7491079498</v>
       </c>
       <c r="AE3" t="n">
-        <v>284829.4813144254</v>
+        <v>402398.8832505987</v>
       </c>
       <c r="AF3" t="n">
         <v>1.068776564404965e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>257645.7553785481</v>
+        <v>363994.4986035406</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.1557128777124</v>
+        <v>283.1502444198146</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.7571442553475</v>
+        <v>387.4186561223547</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.0119010142259</v>
+        <v>350.4439633275353</v>
       </c>
       <c r="AD4" t="n">
-        <v>197155.7128777124</v>
+        <v>283150.2444198146</v>
       </c>
       <c r="AE4" t="n">
-        <v>269757.1442553475</v>
+        <v>387418.6561223547</v>
       </c>
       <c r="AF4" t="n">
         <v>1.085751146460624e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>244011.9010142259</v>
+        <v>350443.9633275353</v>
       </c>
     </row>
   </sheetData>
